--- a/biology/Zoologie/Darevskia_derjugini/Darevskia_derjugini.xlsx
+++ b/biology/Zoologie/Darevskia_derjugini/Darevskia_derjugini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia derjugini est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia derjugini est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Russie, en Arménie, en Géorgie et dans le nord-est de la Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Russie, en Arménie, en Géorgie et dans le nord-est de la Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 décembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 décembre 2012) :
 Darevskia derjugini abchasica (Bischoff, 1982)
 Darevskia derjugini barani (Bischoff, 1982)
 Darevskia derjugini boehmei (Bischoff, 1982)
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Constantin Mikhailovich Deriugin (1878–1938)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Constantin Mikhailovich Deriugin (1878–1938).
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bartenjew &amp; Rjesnikowa, 1931 : Neue Lacerta-Formen (Reptilia) aus dem Kaukasischen Staatsnaturschutz-gebiete (West-Kaukasus). Zoologischer Anzeiger, vol. 96, p. 9-10.
 Bischoff, 1982 : Zur Kenntnis der innerartlichen Gliederung der Artwiner Eidechse Lacerta derjugini. Zoologische Abhandlungen / Staatliches Museum für Tierkunde in Dresden, vol. 1, n. 38, p. 1-52.
